--- a/Finflux Automation Excels/Client/5022-SubmitLoan-Add-SubSlabBased-InstallmentNumberCharges-DisburseLoan-verify-undoDisb-waiveCharge.xlsx
+++ b/Finflux Automation Excels/Client/5022-SubmitLoan-Add-SubSlabBased-InstallmentNumberCharges-DisburseLoan-verify-undoDisb-waiveCharge.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="UndoDisb" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +239,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -278,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -307,6 +314,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,28 +769,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -846,7 +856,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,15 +885,15 @@
       <c r="A2" s="7">
         <v>3500</v>
       </c>
-      <c r="B2" s="8">
-        <v>1394.5</v>
+      <c r="B2" s="7">
+        <v>1394</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
-        <v>2105.5</v>
+      <c r="E2" s="7">
+        <v>2106</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
@@ -891,10 +901,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>101.14</v>
+        <v>125.82</v>
       </c>
       <c r="B3" s="9">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="C3" s="9">
         <v>0</v>
@@ -903,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>66.64</v>
+        <v>90.82</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -956,10 +966,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,14 +1070,14 @@
         <v>42036</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="8">
-        <v>1394.5</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2105.5</v>
+      <c r="F3" s="7">
+        <v>1394</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2106</v>
       </c>
       <c r="H3" s="9">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="I3" s="9">
         <v>50</v>
@@ -1076,14 +1086,14 @@
         <v>0</v>
       </c>
       <c r="K3" s="9">
-        <v>644.51</v>
+        <v>472.33</v>
       </c>
       <c r="L3" s="7">
         <v>1429</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="9">
-        <v>834.49</v>
+      <c r="N3" s="8">
+        <v>1006.67</v>
       </c>
       <c r="O3" s="9">
         <v>0</v>
@@ -1108,10 +1118,10 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9">
-        <v>428.51</v>
+        <v>283.17</v>
       </c>
       <c r="G4" s="8">
-        <v>1676.99</v>
+        <v>1822.83</v>
       </c>
       <c r="H4" s="9">
         <v>21.06</v>
@@ -1123,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>449.57</v>
+        <v>304.23</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
@@ -1139,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="9">
-        <v>449.57</v>
+        <v>304.23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1155,10 +1165,10 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>428.3</v>
+        <v>282.95999999999998</v>
       </c>
       <c r="G5" s="8">
-        <v>1248.69</v>
+        <v>1539.87</v>
       </c>
       <c r="H5" s="9">
         <v>21.27</v>
@@ -1170,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>449.57</v>
+        <v>304.23</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -1186,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="9">
-        <v>449.57</v>
+        <v>304.23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1202,13 +1212,13 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>437.08</v>
-      </c>
-      <c r="G6" s="9">
-        <v>811.61</v>
+        <v>288.83</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1251.04</v>
       </c>
       <c r="H6" s="9">
-        <v>12.49</v>
+        <v>15.4</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -1217,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="9">
-        <v>449.57</v>
+        <v>304.23</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
@@ -1233,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <v>449.57</v>
+        <v>304.23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1249,13 +1259,13 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>441.45</v>
+        <v>291.72000000000003</v>
       </c>
       <c r="G7" s="9">
-        <v>370.16</v>
+        <v>959.32</v>
       </c>
       <c r="H7" s="9">
-        <v>8.1199999999999992</v>
+        <v>12.51</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -1264,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="9">
-        <v>449.57</v>
+        <v>304.23</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
@@ -1280,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>449.57</v>
+        <v>304.23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1296,13 +1306,13 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>370.16</v>
+        <v>294.64</v>
       </c>
       <c r="G8" s="9">
-        <v>0</v>
+        <v>664.68</v>
       </c>
       <c r="H8" s="9">
-        <v>3.7</v>
+        <v>9.59</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
@@ -1311,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="9">
-        <v>373.86</v>
+        <v>304.23</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -1327,7 +1337,148 @@
         <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <v>373.86</v>
+        <v>304.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
+        <v>297.58</v>
+      </c>
+      <c r="G9" s="9">
+        <v>367.1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6.65</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>304.23</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>304.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
+        <v>300.56</v>
+      </c>
+      <c r="G10" s="9">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3.67</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>304.23</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>304.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9">
+        <v>16.54</v>
+      </c>
+      <c r="G11" s="9">
+        <v>50</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.67</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>17.21</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>17.21</v>
       </c>
     </row>
   </sheetData>
@@ -1339,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1535,7 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>57</v>
@@ -1398,11 +1549,11 @@
       <c r="E2" s="7">
         <v>1429</v>
       </c>
-      <c r="F2" s="8">
-        <v>1394.5</v>
+      <c r="F2" s="7">
+        <v>1394</v>
       </c>
       <c r="G2" s="9">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="H2" s="9">
         <v>0</v>
@@ -1410,15 +1561,15 @@
       <c r="I2" s="9">
         <v>0</v>
       </c>
-      <c r="J2" s="8">
-        <v>2105.5</v>
+      <c r="J2" s="7">
+        <v>2106</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>57</v>
@@ -1452,7 +1603,7 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>57</v>
